--- a/EI期刊.xlsx
+++ b/EI期刊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E95664-FC93-4C9A-8DBB-1271CB59575D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B283FB-24B2-49FF-989B-B636A1C5D1F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="26940" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>EI期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>6 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈工大学报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%来自外校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期没有视频编解码相关的文章，最新的是2016/2014。但有较多视频目标跟踪、图像重建、图像理解的文章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章数量：25篇/期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近文章长度（双栏）：8, 11, 7, 7, 6, 8, 10, 6, 7, 9, 5, 6, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章质量：提升HEVC帧内编码速度的文章(2016)，提升了22.6%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能对比：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶会(ICIP, ICSIP, ISCAS)：33.76%，37.6%，27.3%，39.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶刊(VT, TIP): 54%, 50%, 53.52%, 42.7%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,6 +618,56 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
